--- a/state_results/Rivers/HokioatLakeHorowhenua_960456d711.xlsx
+++ b/state_results/Rivers/HokioatLakeHorowhenua_960456d711.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U205"/>
+  <dimension ref="A1:U225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,7 +732,7 @@
         <v>0.42</v>
       </c>
       <c r="G4" t="n">
-        <v>0.724342389842938</v>
+        <v>0.7240953723721399</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -813,7 +813,7 @@
         <v>0.42</v>
       </c>
       <c r="G5" t="n">
-        <v>0.724342389842938</v>
+        <v>0.7240953723721399</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -890,7 +890,7 @@
         <v>0.679</v>
       </c>
       <c r="G6" t="n">
-        <v>0.907629415982986</v>
+        <v>0.9075763277184949</v>
       </c>
       <c r="H6" t="n">
         <v>3.02</v>
@@ -967,7 +967,7 @@
         <v>0.679</v>
       </c>
       <c r="G7" t="n">
-        <v>0.907629415982986</v>
+        <v>0.9075763277184949</v>
       </c>
       <c r="H7" t="n">
         <v>3.02</v>
@@ -1364,7 +1364,7 @@
         <v>0.41</v>
       </c>
       <c r="G12" t="n">
-        <v>0.654660666229674</v>
+        <v>0.654431087179656</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
@@ -1445,7 +1445,7 @@
         <v>0.41</v>
       </c>
       <c r="G13" t="n">
-        <v>0.654660666229674</v>
+        <v>0.654431087179656</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
@@ -1834,7 +1834,7 @@
         <v>0.019</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0572627407565279</v>
+        <v>0.0572615836146556</v>
       </c>
       <c r="H18" t="n">
         <v>0.29</v>
@@ -1915,7 +1915,7 @@
         <v>0.019</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0572627407565279</v>
+        <v>0.0572615836146556</v>
       </c>
       <c r="H19" t="n">
         <v>0.29</v>
@@ -1996,7 +1996,7 @@
         <v>0.48</v>
       </c>
       <c r="G20" t="n">
-        <v>0.738068173191236</v>
+        <v>0.737829910688503</v>
       </c>
       <c r="H20" t="n">
         <v>2.8</v>
@@ -2077,7 +2077,7 @@
         <v>0.48</v>
       </c>
       <c r="G21" t="n">
-        <v>0.738068173191236</v>
+        <v>0.737829910688503</v>
       </c>
       <c r="H21" t="n">
         <v>2.8</v>
@@ -2154,7 +2154,7 @@
         <v>0.679</v>
       </c>
       <c r="G22" t="n">
-        <v>0.885672614389461</v>
+        <v>0.885649750446558</v>
       </c>
       <c r="H22" t="n">
         <v>2.88</v>
@@ -2231,7 +2231,7 @@
         <v>0.679</v>
       </c>
       <c r="G23" t="n">
-        <v>0.885672614389461</v>
+        <v>0.885649750446558</v>
       </c>
       <c r="H23" t="n">
         <v>2.88</v>
@@ -2308,7 +2308,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.159140960670454</v>
+        <v>0.159154177076296</v>
       </c>
       <c r="H24" t="n">
         <v>0.959</v>
@@ -2385,7 +2385,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.159140960670454</v>
+        <v>0.159154177076296</v>
       </c>
       <c r="H25" t="n">
         <v>0.959</v>
@@ -2466,7 +2466,7 @@
         <v>0.0415</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0813211385003835</v>
+        <v>0.0813201071348018</v>
       </c>
       <c r="H26" t="n">
         <v>0.57</v>
@@ -2547,7 +2547,7 @@
         <v>0.0415</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0813211385003835</v>
+        <v>0.0813201071348018</v>
       </c>
       <c r="H27" t="n">
         <v>0.57</v>
@@ -2628,7 +2628,7 @@
         <v>0.475</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8208602421865669</v>
+        <v>0.820531893560948</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
@@ -2709,7 +2709,7 @@
         <v>0.475</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8208602421865669</v>
+        <v>0.820531893560948</v>
       </c>
       <c r="H29" t="n">
         <v>3.3</v>
@@ -2786,7 +2786,7 @@
         <v>0.6495</v>
       </c>
       <c r="G30" t="n">
-        <v>0.971425591086259</v>
+        <v>0.97140521235454</v>
       </c>
       <c r="H30" t="n">
         <v>3.326</v>
@@ -2863,7 +2863,7 @@
         <v>0.6495</v>
       </c>
       <c r="G31" t="n">
-        <v>0.971425591086259</v>
+        <v>0.97140521235454</v>
       </c>
       <c r="H31" t="n">
         <v>3.326</v>
@@ -2940,7 +2940,7 @@
         <v>0.08</v>
       </c>
       <c r="G32" t="n">
-        <v>0.194192463300011</v>
+        <v>0.19417261800728</v>
       </c>
       <c r="H32" t="n">
         <v>0.959</v>
@@ -3017,7 +3017,7 @@
         <v>0.08</v>
       </c>
       <c r="G33" t="n">
-        <v>0.194192463300011</v>
+        <v>0.19417261800728</v>
       </c>
       <c r="H33" t="n">
         <v>0.959</v>
@@ -3098,7 +3098,7 @@
         <v>0.043</v>
       </c>
       <c r="G34" t="n">
-        <v>0.09855049713372541</v>
+        <v>0.0985494428489085</v>
       </c>
       <c r="H34" t="n">
         <v>0.57</v>
@@ -3179,7 +3179,7 @@
         <v>0.043</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09855049713372541</v>
+        <v>0.0985494428489085</v>
       </c>
       <c r="H35" t="n">
         <v>0.57</v>
@@ -3260,7 +3260,7 @@
         <v>0.05</v>
       </c>
       <c r="G36" t="n">
-        <v>0.165465417064204</v>
+        <v>0.165468882060966</v>
       </c>
       <c r="H36" t="n">
         <v>0.981377707194991</v>
@@ -3341,7 +3341,7 @@
         <v>0.05</v>
       </c>
       <c r="G37" t="n">
-        <v>0.165465417064204</v>
+        <v>0.165468882060966</v>
       </c>
       <c r="H37" t="n">
         <v>0.981377707194991</v>
@@ -3422,7 +3422,7 @@
         <v>0.47</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7367322991729121</v>
+        <v>0.736238482794113</v>
       </c>
       <c r="H38" t="n">
         <v>3.3</v>
@@ -3433,7 +3433,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.04</v>
+        <v>0.03849</v>
       </c>
       <c r="M38" t="n">
         <v>1.655</v>
@@ -3503,7 +3503,7 @@
         <v>0.47</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7367322991729121</v>
+        <v>0.736238482794113</v>
       </c>
       <c r="H39" t="n">
         <v>3.3</v>
@@ -3514,7 +3514,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.04</v>
+        <v>0.03849</v>
       </c>
       <c r="M39" t="n">
         <v>1.655</v>
@@ -3580,7 +3580,7 @@
         <v>0.57</v>
       </c>
       <c r="G40" t="n">
-        <v>0.863597595789269</v>
+        <v>0.863516192537066</v>
       </c>
       <c r="H40" t="n">
         <v>3.326</v>
@@ -3657,7 +3657,7 @@
         <v>0.57</v>
       </c>
       <c r="G41" t="n">
-        <v>0.863597595789269</v>
+        <v>0.863516192537066</v>
       </c>
       <c r="H41" t="n">
         <v>3.326</v>
@@ -3734,7 +3734,7 @@
         <v>0.08</v>
       </c>
       <c r="G42" t="n">
-        <v>0.208612455364879</v>
+        <v>0.208588319198044</v>
       </c>
       <c r="H42" t="n">
         <v>0.959</v>
@@ -3811,7 +3811,7 @@
         <v>0.08</v>
       </c>
       <c r="G43" t="n">
-        <v>0.208612455364879</v>
+        <v>0.208588319198044</v>
       </c>
       <c r="H43" t="n">
         <v>0.959</v>
@@ -3892,7 +3892,7 @@
         <v>0.044</v>
       </c>
       <c r="G44" t="n">
-        <v>0.109399253270747</v>
+        <v>0.109397971032456</v>
       </c>
       <c r="H44" t="n">
         <v>0.57</v>
@@ -3973,7 +3973,7 @@
         <v>0.044</v>
       </c>
       <c r="G45" t="n">
-        <v>0.109399253270747</v>
+        <v>0.109397971032456</v>
       </c>
       <c r="H45" t="n">
         <v>0.57</v>
@@ -4054,7 +4054,7 @@
         <v>0.05</v>
       </c>
       <c r="G46" t="n">
-        <v>0.165465417064204</v>
+        <v>0.165468882060966</v>
       </c>
       <c r="H46" t="n">
         <v>0.981377707194991</v>
@@ -4135,7 +4135,7 @@
         <v>0.05</v>
       </c>
       <c r="G47" t="n">
-        <v>0.165465417064204</v>
+        <v>0.165468882060966</v>
       </c>
       <c r="H47" t="n">
         <v>0.981377707194991</v>
@@ -4216,7 +4216,7 @@
         <v>0.47</v>
       </c>
       <c r="G48" t="n">
-        <v>0.730890634129218</v>
+        <v>0.730290046641489</v>
       </c>
       <c r="H48" t="n">
         <v>3.3</v>
@@ -4227,7 +4227,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.03958</v>
+        <v>0.03668</v>
       </c>
       <c r="M48" t="n">
         <v>1.721</v>
@@ -4297,7 +4297,7 @@
         <v>0.47</v>
       </c>
       <c r="G49" t="n">
-        <v>0.730890634129218</v>
+        <v>0.730290046641489</v>
       </c>
       <c r="H49" t="n">
         <v>3.3</v>
@@ -4308,7 +4308,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.03958</v>
+        <v>0.03668</v>
       </c>
       <c r="M49" t="n">
         <v>1.721</v>
@@ -4374,7 +4374,7 @@
         <v>0.52</v>
       </c>
       <c r="G50" t="n">
-        <v>0.83764572460857</v>
+        <v>0.837546720653189</v>
       </c>
       <c r="H50" t="n">
         <v>3.326</v>
@@ -4451,7 +4451,7 @@
         <v>0.52</v>
       </c>
       <c r="G51" t="n">
-        <v>0.83764572460857</v>
+        <v>0.837546720653189</v>
       </c>
       <c r="H51" t="n">
         <v>3.326</v>
@@ -4532,7 +4532,7 @@
         <v>0.044</v>
       </c>
       <c r="G52" t="n">
-        <v>0.108573302290892</v>
+        <v>0.108571771877448</v>
       </c>
       <c r="H52" t="n">
         <v>0.57</v>
@@ -4613,7 +4613,7 @@
         <v>0.044</v>
       </c>
       <c r="G53" t="n">
-        <v>0.108573302290892</v>
+        <v>0.108571771877448</v>
       </c>
       <c r="H53" t="n">
         <v>0.57</v>
@@ -4694,7 +4694,7 @@
         <v>0.05135</v>
       </c>
       <c r="G54" t="n">
-        <v>0.17916345723543</v>
+        <v>0.179167499731652</v>
       </c>
       <c r="H54" t="n">
         <v>0.981377707194991</v>
@@ -4775,7 +4775,7 @@
         <v>0.05135</v>
       </c>
       <c r="G55" t="n">
-        <v>0.17916345723543</v>
+        <v>0.179167499731652</v>
       </c>
       <c r="H55" t="n">
         <v>0.981377707194991</v>
@@ -4856,7 +4856,7 @@
         <v>0.7</v>
       </c>
       <c r="G56" t="n">
-        <v>0.846009449064266</v>
+        <v>0.845325589508484</v>
       </c>
       <c r="H56" t="n">
         <v>3.3</v>
@@ -4867,7 +4867,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>0.03916</v>
+        <v>0.03638</v>
       </c>
       <c r="M56" t="n">
         <v>1.846</v>
@@ -4937,7 +4937,7 @@
         <v>0.7</v>
       </c>
       <c r="G57" t="n">
-        <v>0.846009449064266</v>
+        <v>0.845325589508484</v>
       </c>
       <c r="H57" t="n">
         <v>3.3</v>
@@ -4948,7 +4948,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>0.03916</v>
+        <v>0.03638</v>
       </c>
       <c r="M57" t="n">
         <v>1.846</v>
@@ -5014,7 +5014,7 @@
         <v>0.77</v>
       </c>
       <c r="G58" t="n">
-        <v>0.965480380984423</v>
+        <v>0.965362214973161</v>
       </c>
       <c r="H58" t="n">
         <v>3.326</v>
@@ -5091,7 +5091,7 @@
         <v>0.77</v>
       </c>
       <c r="G59" t="n">
-        <v>0.965480380984423</v>
+        <v>0.965362214973161</v>
       </c>
       <c r="H59" t="n">
         <v>3.326</v>
@@ -5788,7 +5788,7 @@
         <v>0.021</v>
       </c>
       <c r="G68" t="n">
-        <v>0.12752559672635</v>
+        <v>0.12752621372902</v>
       </c>
       <c r="H68" t="n">
         <v>0.757</v>
@@ -5869,7 +5869,7 @@
         <v>0.021</v>
       </c>
       <c r="G69" t="n">
-        <v>0.12752559672635</v>
+        <v>0.12752621372902</v>
       </c>
       <c r="H69" t="n">
         <v>0.757</v>
@@ -5950,7 +5950,7 @@
         <v>34</v>
       </c>
       <c r="G70" t="n">
-        <v>159.063063874568</v>
+        <v>159.044855549272</v>
       </c>
       <c r="H70" t="n">
         <v>2452</v>
@@ -6035,7 +6035,7 @@
         <v>34</v>
       </c>
       <c r="G71" t="n">
-        <v>159.063063874568</v>
+        <v>159.044855549272</v>
       </c>
       <c r="H71" t="n">
         <v>2452</v>
@@ -6120,7 +6120,7 @@
         <v>34</v>
       </c>
       <c r="G72" t="n">
-        <v>159.063063874568</v>
+        <v>159.044855549272</v>
       </c>
       <c r="H72" t="n">
         <v>2452</v>
@@ -6205,7 +6205,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="n">
-        <v>159.063063874568</v>
+        <v>159.044855549272</v>
       </c>
       <c r="H73" t="n">
         <v>2452</v>
@@ -6367,7 +6367,7 @@
         <v>0.0199</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0619924452817967</v>
+        <v>0.0622747823572143</v>
       </c>
       <c r="H75" t="n">
         <v>0.455</v>
@@ -6378,7 +6378,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0.01238</v>
+        <v>0.01306</v>
       </c>
       <c r="M75" t="n">
         <v>0.14147</v>
@@ -6448,7 +6448,7 @@
         <v>0.0199</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0619924452817967</v>
+        <v>0.0622747823572143</v>
       </c>
       <c r="H76" t="n">
         <v>0.455</v>
@@ -6459,7 +6459,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.01238</v>
+        <v>0.01306</v>
       </c>
       <c r="M76" t="n">
         <v>0.14147</v>
@@ -6529,7 +6529,7 @@
         <v>0.3288</v>
       </c>
       <c r="G77" t="n">
-        <v>0.857273280937721</v>
+        <v>0.857149902543291</v>
       </c>
       <c r="H77" t="n">
         <v>3.53</v>
@@ -6540,7 +6540,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00651</v>
+        <v>0.00576</v>
       </c>
       <c r="M77" t="n">
         <v>2.1114</v>
@@ -6610,7 +6610,7 @@
         <v>0.3288</v>
       </c>
       <c r="G78" t="n">
-        <v>0.857273280937721</v>
+        <v>0.857149902543291</v>
       </c>
       <c r="H78" t="n">
         <v>3.53</v>
@@ -6621,7 +6621,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00651</v>
+        <v>0.00576</v>
       </c>
       <c r="M78" t="n">
         <v>2.1114</v>
@@ -6761,27 +6761,27 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.451</v>
+        <v>0.4513</v>
       </c>
       <c r="G80" t="n">
-        <v>0.913880393833113</v>
+        <v>0.913747970436768</v>
       </c>
       <c r="H80" t="n">
         <v>3.545</v>
       </c>
       <c r="I80" t="n">
-        <v>3.1122</v>
+        <v>3.11223</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.02427</v>
+        <v>0.02226</v>
       </c>
       <c r="M80" t="n">
-        <v>2.11913</v>
+        <v>2.11917</v>
       </c>
       <c r="N80" t="n">
-        <v>2.62546</v>
+        <v>2.62542</v>
       </c>
       <c r="O80" t="n">
         <v>1789183.391</v>
@@ -6838,27 +6838,27 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.451</v>
+        <v>0.4513</v>
       </c>
       <c r="G81" t="n">
-        <v>0.913880393833113</v>
+        <v>0.913747970436768</v>
       </c>
       <c r="H81" t="n">
         <v>3.545</v>
       </c>
       <c r="I81" t="n">
-        <v>3.1122</v>
+        <v>3.11223</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.02427</v>
+        <v>0.02226</v>
       </c>
       <c r="M81" t="n">
-        <v>2.11913</v>
+        <v>2.11917</v>
       </c>
       <c r="N81" t="n">
-        <v>2.62546</v>
+        <v>2.62542</v>
       </c>
       <c r="O81" t="n">
         <v>1789183.391</v>
@@ -7388,7 +7388,7 @@
         <v>0.019</v>
       </c>
       <c r="G88" t="n">
-        <v>0.10058901658973</v>
+        <v>0.100590661601273</v>
       </c>
       <c r="H88" t="n">
         <v>0.757</v>
@@ -7469,7 +7469,7 @@
         <v>0.019</v>
       </c>
       <c r="G89" t="n">
-        <v>0.10058901658973</v>
+        <v>0.100590661601273</v>
       </c>
       <c r="H89" t="n">
         <v>0.757</v>
@@ -7550,7 +7550,7 @@
         <v>48</v>
       </c>
       <c r="G90" t="n">
-        <v>142.700680884878</v>
+        <v>142.686931741287</v>
       </c>
       <c r="H90" t="n">
         <v>2452</v>
@@ -7635,7 +7635,7 @@
         <v>48</v>
       </c>
       <c r="G91" t="n">
-        <v>142.700680884878</v>
+        <v>142.686931741287</v>
       </c>
       <c r="H91" t="n">
         <v>2452</v>
@@ -7720,7 +7720,7 @@
         <v>48</v>
       </c>
       <c r="G92" t="n">
-        <v>142.700680884878</v>
+        <v>142.686931741287</v>
       </c>
       <c r="H92" t="n">
         <v>2452</v>
@@ -7805,7 +7805,7 @@
         <v>48</v>
       </c>
       <c r="G93" t="n">
-        <v>142.700680884878</v>
+        <v>142.686931741287</v>
       </c>
       <c r="H93" t="n">
         <v>2452</v>
@@ -7967,7 +7967,7 @@
         <v>0.02073</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0563861751145074</v>
+        <v>0.0566477400014984</v>
       </c>
       <c r="H95" t="n">
         <v>0.455</v>
@@ -8048,7 +8048,7 @@
         <v>0.02073</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0563861751145074</v>
+        <v>0.0566477400014984</v>
       </c>
       <c r="H96" t="n">
         <v>0.455</v>
@@ -8129,7 +8129,7 @@
         <v>0.539</v>
       </c>
       <c r="G97" t="n">
-        <v>0.98124717132032</v>
+        <v>0.981154008042893</v>
       </c>
       <c r="H97" t="n">
         <v>3.53</v>
@@ -8140,7 +8140,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00827</v>
+        <v>0.00743</v>
       </c>
       <c r="M97" t="n">
         <v>2.3551</v>
@@ -8210,7 +8210,7 @@
         <v>0.539</v>
       </c>
       <c r="G98" t="n">
-        <v>0.98124717132032</v>
+        <v>0.981154008042893</v>
       </c>
       <c r="H98" t="n">
         <v>3.53</v>
@@ -8221,7 +8221,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.00827</v>
+        <v>0.00743</v>
       </c>
       <c r="M98" t="n">
         <v>2.3551</v>
@@ -8364,7 +8364,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>1.03466478718011</v>
+        <v>1.03456479400327</v>
       </c>
       <c r="H100" t="n">
         <v>3.545</v>
@@ -8375,13 +8375,13 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>0.03</v>
+        <v>0.0303</v>
       </c>
       <c r="M100" t="n">
-        <v>2.37476</v>
+        <v>2.37479</v>
       </c>
       <c r="N100" t="n">
-        <v>2.67416</v>
+        <v>2.67422</v>
       </c>
       <c r="O100" t="n">
         <v>1789183.391</v>
@@ -8441,7 +8441,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>1.03466478718011</v>
+        <v>1.03456479400327</v>
       </c>
       <c r="H101" t="n">
         <v>3.545</v>
@@ -8452,13 +8452,13 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>0.03</v>
+        <v>0.0303</v>
       </c>
       <c r="M101" t="n">
-        <v>2.37476</v>
+        <v>2.37479</v>
       </c>
       <c r="N101" t="n">
-        <v>2.67416</v>
+        <v>2.67422</v>
       </c>
       <c r="O101" t="n">
         <v>1789183.391</v>
@@ -8988,7 +8988,7 @@
         <v>0.019</v>
       </c>
       <c r="G108" t="n">
-        <v>0.124085294963101</v>
+        <v>0.124086709095831</v>
       </c>
       <c r="H108" t="n">
         <v>1.18</v>
@@ -9069,7 +9069,7 @@
         <v>0.019</v>
       </c>
       <c r="G109" t="n">
-        <v>0.124085294963101</v>
+        <v>0.124086709095831</v>
       </c>
       <c r="H109" t="n">
         <v>1.18</v>
@@ -9150,7 +9150,7 @@
         <v>54</v>
       </c>
       <c r="G110" t="n">
-        <v>143.847953743141</v>
+        <v>143.836134303914</v>
       </c>
       <c r="H110" t="n">
         <v>2452</v>
@@ -9235,7 +9235,7 @@
         <v>54</v>
       </c>
       <c r="G111" t="n">
-        <v>143.847953743141</v>
+        <v>143.836134303914</v>
       </c>
       <c r="H111" t="n">
         <v>2452</v>
@@ -9320,7 +9320,7 @@
         <v>54</v>
       </c>
       <c r="G112" t="n">
-        <v>143.847953743141</v>
+        <v>143.836134303914</v>
       </c>
       <c r="H112" t="n">
         <v>2452</v>
@@ -9405,7 +9405,7 @@
         <v>54</v>
       </c>
       <c r="G113" t="n">
-        <v>143.847953743141</v>
+        <v>143.836134303914</v>
       </c>
       <c r="H113" t="n">
         <v>2452</v>
@@ -9567,7 +9567,7 @@
         <v>0.0199</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0575322578269657</v>
+        <v>0.0577687811521417</v>
       </c>
       <c r="H115" t="n">
         <v>0.455</v>
@@ -9648,7 +9648,7 @@
         <v>0.0199</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0575322578269657</v>
+        <v>0.0577687811521417</v>
       </c>
       <c r="H116" t="n">
         <v>0.455</v>
@@ -9729,7 +9729,7 @@
         <v>0.539</v>
       </c>
       <c r="G117" t="n">
-        <v>1.03006079384865</v>
+        <v>1.02994614304602</v>
       </c>
       <c r="H117" t="n">
         <v>3.53</v>
@@ -9740,7 +9740,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>0.01006</v>
+        <v>0.00944</v>
       </c>
       <c r="M117" t="n">
         <v>2.3743</v>
@@ -9810,7 +9810,7 @@
         <v>0.539</v>
       </c>
       <c r="G118" t="n">
-        <v>1.03006079384865</v>
+        <v>1.02994614304602</v>
       </c>
       <c r="H118" t="n">
         <v>3.53</v>
@@ -9821,7 +9821,7 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>0.01006</v>
+        <v>0.00944</v>
       </c>
       <c r="M118" t="n">
         <v>2.3743</v>
@@ -9961,10 +9961,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.744</v>
+        <v>0.7445000000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>1.08479955389167</v>
+        <v>1.08472061238878</v>
       </c>
       <c r="H120" t="n">
         <v>3.545</v>
@@ -9975,13 +9975,13 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>0.0275</v>
+        <v>0.02765</v>
       </c>
       <c r="M120" t="n">
-        <v>2.39648</v>
+        <v>2.39664</v>
       </c>
       <c r="N120" t="n">
-        <v>2.71358</v>
+        <v>2.71367</v>
       </c>
       <c r="O120" t="n">
         <v>1789183.391</v>
@@ -10038,10 +10038,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.744</v>
+        <v>0.7445000000000001</v>
       </c>
       <c r="G121" t="n">
-        <v>1.08479955389167</v>
+        <v>1.08472061238878</v>
       </c>
       <c r="H121" t="n">
         <v>3.545</v>
@@ -10052,13 +10052,13 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>0.0275</v>
+        <v>0.02765</v>
       </c>
       <c r="M121" t="n">
-        <v>2.39648</v>
+        <v>2.39664</v>
       </c>
       <c r="N121" t="n">
-        <v>2.71358</v>
+        <v>2.71367</v>
       </c>
       <c r="O121" t="n">
         <v>1789183.391</v>
@@ -10588,7 +10588,7 @@
         <v>0.019</v>
       </c>
       <c r="G128" t="n">
-        <v>0.151957236257935</v>
+        <v>0.151958848369248</v>
       </c>
       <c r="H128" t="n">
         <v>1.18</v>
@@ -10669,7 +10669,7 @@
         <v>0.019</v>
       </c>
       <c r="G129" t="n">
-        <v>0.151957236257935</v>
+        <v>0.151958848369248</v>
       </c>
       <c r="H129" t="n">
         <v>1.18</v>
@@ -10750,7 +10750,7 @@
         <v>69.5</v>
       </c>
       <c r="G130" t="n">
-        <v>182.26666726718</v>
+        <v>182.253193106461</v>
       </c>
       <c r="H130" t="n">
         <v>3700</v>
@@ -10835,7 +10835,7 @@
         <v>69.5</v>
       </c>
       <c r="G131" t="n">
-        <v>182.26666726718</v>
+        <v>182.253193106461</v>
       </c>
       <c r="H131" t="n">
         <v>3700</v>
@@ -10920,7 +10920,7 @@
         <v>69.5</v>
       </c>
       <c r="G132" t="n">
-        <v>182.26666726718</v>
+        <v>182.253193106461</v>
       </c>
       <c r="H132" t="n">
         <v>3700</v>
@@ -11005,7 +11005,7 @@
         <v>69.5</v>
       </c>
       <c r="G133" t="n">
-        <v>182.26666726718</v>
+        <v>182.253193106461</v>
       </c>
       <c r="H133" t="n">
         <v>3700</v>
@@ -11167,7 +11167,7 @@
         <v>0.01854</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0415932618706619</v>
+        <v>0.0418668472006022</v>
       </c>
       <c r="H135" t="n">
         <v>0.25</v>
@@ -11178,7 +11178,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
-        <v>0.01265</v>
+        <v>0.01339</v>
       </c>
       <c r="M135" t="n">
         <v>0.05443</v>
@@ -11248,7 +11248,7 @@
         <v>0.01854</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0415932618706619</v>
+        <v>0.0418668472006022</v>
       </c>
       <c r="H136" t="n">
         <v>0.25</v>
@@ -11259,7 +11259,7 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>0.01265</v>
+        <v>0.01339</v>
       </c>
       <c r="M136" t="n">
         <v>0.05443</v>
@@ -11329,7 +11329,7 @@
         <v>0.4975</v>
       </c>
       <c r="G137" t="n">
-        <v>1.06785507241812</v>
+        <v>1.06772399326973</v>
       </c>
       <c r="H137" t="n">
         <v>3.53</v>
@@ -11340,7 +11340,7 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>0.0137</v>
+        <v>0.0127</v>
       </c>
       <c r="M137" t="n">
         <v>2.38</v>
@@ -11410,7 +11410,7 @@
         <v>0.4975</v>
       </c>
       <c r="G138" t="n">
-        <v>1.06785507241812</v>
+        <v>1.06772399326973</v>
       </c>
       <c r="H138" t="n">
         <v>3.53</v>
@@ -11421,7 +11421,7 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>0.0137</v>
+        <v>0.0127</v>
       </c>
       <c r="M138" t="n">
         <v>2.38</v>
@@ -11564,7 +11564,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G140" t="n">
-        <v>1.1187714914365</v>
+        <v>1.11865949812321</v>
       </c>
       <c r="H140" t="n">
         <v>3.545</v>
@@ -11575,13 +11575,13 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
-        <v>0.02427</v>
+        <v>0.02226</v>
       </c>
       <c r="M140" t="n">
-        <v>2.398</v>
+        <v>2.3982</v>
       </c>
       <c r="N140" t="n">
-        <v>2.8185</v>
+        <v>2.81855</v>
       </c>
       <c r="O140" t="n">
         <v>1789183.391</v>
@@ -11641,7 +11641,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="G141" t="n">
-        <v>1.1187714914365</v>
+        <v>1.11865949812321</v>
       </c>
       <c r="H141" t="n">
         <v>3.545</v>
@@ -11652,13 +11652,13 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.02427</v>
+        <v>0.02226</v>
       </c>
       <c r="M141" t="n">
-        <v>2.398</v>
+        <v>2.3982</v>
       </c>
       <c r="N141" t="n">
-        <v>2.8185</v>
+        <v>2.81855</v>
       </c>
       <c r="O141" t="n">
         <v>1789183.391</v>
@@ -12188,7 +12188,7 @@
         <v>0.0115</v>
       </c>
       <c r="G148" t="n">
-        <v>0.125267954435349</v>
+        <v>0.125269633717966</v>
       </c>
       <c r="H148" t="n">
         <v>1.18</v>
@@ -12269,7 +12269,7 @@
         <v>0.0115</v>
       </c>
       <c r="G149" t="n">
-        <v>0.125267954435349</v>
+        <v>0.125269633717966</v>
       </c>
       <c r="H149" t="n">
         <v>1.18</v>
@@ -12350,7 +12350,7 @@
         <v>66.5</v>
       </c>
       <c r="G150" t="n">
-        <v>261.062806125682</v>
+        <v>261.054335643226</v>
       </c>
       <c r="H150" t="n">
         <v>3700</v>
@@ -12435,7 +12435,7 @@
         <v>66.5</v>
       </c>
       <c r="G151" t="n">
-        <v>261.062806125682</v>
+        <v>261.054335643226</v>
       </c>
       <c r="H151" t="n">
         <v>3700</v>
@@ -12520,7 +12520,7 @@
         <v>66.5</v>
       </c>
       <c r="G152" t="n">
-        <v>261.062806125682</v>
+        <v>261.054335643226</v>
       </c>
       <c r="H152" t="n">
         <v>3700</v>
@@ -12605,7 +12605,7 @@
         <v>66.5</v>
       </c>
       <c r="G153" t="n">
-        <v>261.062806125682</v>
+        <v>261.054335643226</v>
       </c>
       <c r="H153" t="n">
         <v>3700</v>
@@ -12764,10 +12764,10 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0.02889</v>
+        <v>0.02909</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0533534843827166</v>
+        <v>0.0535945846777462</v>
       </c>
       <c r="H155" t="n">
         <v>0.25</v>
@@ -12845,10 +12845,10 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.02889</v>
+        <v>0.02909</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0533534843827166</v>
+        <v>0.0535945846777462</v>
       </c>
       <c r="H156" t="n">
         <v>0.25</v>
@@ -12929,7 +12929,7 @@
         <v>0.5195</v>
       </c>
       <c r="G157" t="n">
-        <v>1.07442709870735</v>
+        <v>1.0742914592015</v>
       </c>
       <c r="H157" t="n">
         <v>3.53</v>
@@ -12940,7 +12940,7 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>0.01676</v>
+        <v>0.01625</v>
       </c>
       <c r="M157" t="n">
         <v>2.4412</v>
@@ -13010,7 +13010,7 @@
         <v>0.5195</v>
       </c>
       <c r="G158" t="n">
-        <v>1.07442709870735</v>
+        <v>1.0742914592015</v>
       </c>
       <c r="H158" t="n">
         <v>3.53</v>
@@ -13021,7 +13021,7 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>0.01676</v>
+        <v>0.01625</v>
       </c>
       <c r="M158" t="n">
         <v>2.4412</v>
@@ -13164,7 +13164,7 @@
         <v>0.6385</v>
       </c>
       <c r="G160" t="n">
-        <v>1.13302634148163</v>
+        <v>1.13295510918731</v>
       </c>
       <c r="H160" t="n">
         <v>3.545</v>
@@ -13181,7 +13181,7 @@
         <v>2.4863</v>
       </c>
       <c r="N160" t="n">
-        <v>3.0124</v>
+        <v>3.01273</v>
       </c>
       <c r="O160" t="n">
         <v>1789183.391</v>
@@ -13241,7 +13241,7 @@
         <v>0.6385</v>
       </c>
       <c r="G161" t="n">
-        <v>1.13302634148163</v>
+        <v>1.13295510918731</v>
       </c>
       <c r="H161" t="n">
         <v>3.545</v>
@@ -13258,7 +13258,7 @@
         <v>2.4863</v>
       </c>
       <c r="N161" t="n">
-        <v>3.0124</v>
+        <v>3.01273</v>
       </c>
       <c r="O161" t="n">
         <v>1789183.391</v>
@@ -13788,7 +13788,7 @@
         <v>0.0105</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0920086402921208</v>
+        <v>0.0920098439685129</v>
       </c>
       <c r="H168" t="n">
         <v>1.18</v>
@@ -13869,7 +13869,7 @@
         <v>0.0105</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0920086402921208</v>
+        <v>0.0920098439685129</v>
       </c>
       <c r="H169" t="n">
         <v>1.18</v>
@@ -14367,7 +14367,7 @@
         <v>0.02389</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0592848824945351</v>
+        <v>0.0593583551015025</v>
       </c>
       <c r="H175" t="n">
         <v>0.520671351442155</v>
@@ -14448,7 +14448,7 @@
         <v>0.02389</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0592848824945351</v>
+        <v>0.0593583551015025</v>
       </c>
       <c r="H176" t="n">
         <v>0.520671351442155</v>
@@ -14529,7 +14529,7 @@
         <v>0.454</v>
       </c>
       <c r="G177" t="n">
-        <v>0.895155305470213</v>
+        <v>0.895011807515166</v>
       </c>
       <c r="H177" t="n">
         <v>3.05</v>
@@ -14540,7 +14540,7 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
-        <v>0.04679</v>
+        <v>0.0463</v>
       </c>
       <c r="M177" t="n">
         <v>2.1948</v>
@@ -14610,7 +14610,7 @@
         <v>0.454</v>
       </c>
       <c r="G178" t="n">
-        <v>0.895155305470213</v>
+        <v>0.895011807515166</v>
       </c>
       <c r="H178" t="n">
         <v>3.05</v>
@@ -14621,7 +14621,7 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>0.04679</v>
+        <v>0.0463</v>
       </c>
       <c r="M178" t="n">
         <v>2.1948</v>
@@ -14764,13 +14764,13 @@
         <v>0.625</v>
       </c>
       <c r="G180" t="n">
-        <v>0.9659791666666671</v>
+        <v>0.966</v>
       </c>
       <c r="H180" t="n">
         <v>3.09</v>
       </c>
       <c r="I180" t="n">
-        <v>2.934</v>
+        <v>2.93405</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -14841,13 +14841,13 @@
         <v>0.625</v>
       </c>
       <c r="G181" t="n">
-        <v>0.9659791666666671</v>
+        <v>0.966</v>
       </c>
       <c r="H181" t="n">
         <v>3.09</v>
       </c>
       <c r="I181" t="n">
-        <v>2.934</v>
+        <v>2.93405</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
         <v>0.03635</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06644547432081289</v>
+        <v>0.06646601210734771</v>
       </c>
       <c r="H195" t="n">
         <v>0.520671351442155</v>
@@ -16048,7 +16048,7 @@
         <v>0.03635</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06644547432081289</v>
+        <v>0.06646601210734771</v>
       </c>
       <c r="H196" t="n">
         <v>0.520671351442155</v>
@@ -16129,7 +16129,7 @@
         <v>0.4115</v>
       </c>
       <c r="G197" t="n">
-        <v>0.75172435427394</v>
+        <v>0.751556285156638</v>
       </c>
       <c r="H197" t="n">
         <v>3.05</v>
@@ -16140,7 +16140,7 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
-        <v>0.02372</v>
+        <v>0.02282</v>
       </c>
       <c r="M197" t="n">
         <v>1.628</v>
@@ -16210,7 +16210,7 @@
         <v>0.4115</v>
       </c>
       <c r="G198" t="n">
-        <v>0.75172435427394</v>
+        <v>0.751556285156638</v>
       </c>
       <c r="H198" t="n">
         <v>3.05</v>
@@ -16221,7 +16221,7 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
-        <v>0.02372</v>
+        <v>0.02282</v>
       </c>
       <c r="M198" t="n">
         <v>1.628</v>
@@ -16364,10 +16364,10 @@
         <v>0.5245</v>
       </c>
       <c r="G200" t="n">
-        <v>0.828239130434783</v>
+        <v>0.8282608695652171</v>
       </c>
       <c r="H200" t="n">
-        <v>3.06</v>
+        <v>3.0605</v>
       </c>
       <c r="I200" t="n">
         <v>2.744</v>
@@ -16441,10 +16441,10 @@
         <v>0.5245</v>
       </c>
       <c r="G201" t="n">
-        <v>0.828239130434783</v>
+        <v>0.8282608695652171</v>
       </c>
       <c r="H201" t="n">
-        <v>3.06</v>
+        <v>3.0605</v>
       </c>
       <c r="I201" t="n">
         <v>2.744</v>
@@ -16800,6 +16800,1606 @@
         </is>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.1206</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0.1365</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O206" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P206" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.3515</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.3515</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.5424</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.44684</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O207" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P207" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.0754375</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.4896</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.0883</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.2966</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P208" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.0754375</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.4896</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.0883</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.2966</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P209" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>46</v>
+      </c>
+      <c r="G210" t="n">
+        <v>254.660249138419</v>
+      </c>
+      <c r="H210" t="n">
+        <v>3700</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J210" t="n">
+        <v>10.4166666666667</v>
+      </c>
+      <c r="K210" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L210" t="n">
+        <v>30</v>
+      </c>
+      <c r="M210" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1058.6</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>46</v>
+      </c>
+      <c r="G211" t="n">
+        <v>254.660249138419</v>
+      </c>
+      <c r="H211" t="n">
+        <v>3700</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J211" t="n">
+        <v>10.4166666666667</v>
+      </c>
+      <c r="K211" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L211" t="n">
+        <v>30</v>
+      </c>
+      <c r="M211" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="N211" t="n">
+        <v>1058.6</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>46</v>
+      </c>
+      <c r="G212" t="n">
+        <v>254.660249138419</v>
+      </c>
+      <c r="H212" t="n">
+        <v>3700</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J212" t="n">
+        <v>10.4166666666667</v>
+      </c>
+      <c r="K212" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L212" t="n">
+        <v>30</v>
+      </c>
+      <c r="M212" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1058.6</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>46</v>
+      </c>
+      <c r="G213" t="n">
+        <v>254.660249138419</v>
+      </c>
+      <c r="H213" t="n">
+        <v>3700</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1730</v>
+      </c>
+      <c r="J213" t="n">
+        <v>10.4166666666667</v>
+      </c>
+      <c r="K213" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L213" t="n">
+        <v>30</v>
+      </c>
+      <c r="M213" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="N213" t="n">
+        <v>1058.6</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="G214" t="n">
+        <v>69.526</v>
+      </c>
+      <c r="H214" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="I214" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="M214" t="n">
+        <v>79.41249999999999</v>
+      </c>
+      <c r="N214" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>0.03238</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.0674992712581593</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.520671351442155</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.24478</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>0.02869</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0.10153</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.19602</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.03238</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.0674992712581593</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.520671351442155</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.24478</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.02869</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.10153</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.19602</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0.3895</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.912400756722073</v>
+      </c>
+      <c r="H217" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I217" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>0.02502</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1.594</v>
+      </c>
+      <c r="N217" t="n">
+        <v>2.413</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0.3895</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.912400756722073</v>
+      </c>
+      <c r="H218" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I218" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>0.02502</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1.594</v>
+      </c>
+      <c r="N218" t="n">
+        <v>2.413</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G219" t="n">
+        <v>3.5582</v>
+      </c>
+      <c r="H219" t="n">
+        <v>3.981</v>
+      </c>
+      <c r="I219" t="n">
+        <v>3.981</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M219" t="n">
+        <v>3.93515</v>
+      </c>
+      <c r="N219" t="n">
+        <v>3.981</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.98171875</v>
+      </c>
+      <c r="H220" t="n">
+        <v>11.535</v>
+      </c>
+      <c r="I220" t="n">
+        <v>2.73605</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1.64266</v>
+      </c>
+      <c r="N220" t="n">
+        <v>2.44754</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.98171875</v>
+      </c>
+      <c r="H221" t="n">
+        <v>11.535</v>
+      </c>
+      <c r="I221" t="n">
+        <v>2.73605</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1.64266</v>
+      </c>
+      <c r="N221" t="n">
+        <v>2.44754</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1.99875</v>
+      </c>
+      <c r="H222" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I222" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M222" t="n">
+        <v>2.5042</v>
+      </c>
+      <c r="N222" t="n">
+        <v>3.4036</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1.99875</v>
+      </c>
+      <c r="H223" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I223" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M223" t="n">
+        <v>2.5042</v>
+      </c>
+      <c r="N223" t="n">
+        <v>3.4036</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.179979166666667</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.6109</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.26976</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.5241</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Hokio at Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.179979166666667</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.6109</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.26976</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.5241</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1789183.391</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5502687.637</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Hoki_1b</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
